--- a/code/tables/columns_group.xlsx
+++ b/code/tables/columns_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2022011702\Desktop\Leo\Zipline\Zipline_tquant\TejToolAPI\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2022011702\Anaconda3\envs\zipline-tej\Lib\site-packages\TejToolAPI\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01E8EAD-A228-43DD-AB22-EB4F05916138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974D27B7-CC81-4A88-B7A5-03F99B80A77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_columns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="merge_keys" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table_columns!$A$1:$B$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table_columns!$A$1:$B$357</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">transfer_language!$A$1:$D$366</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1032">
   <si>
     <t>OD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1364,9 +1364,6 @@
     <t>創新高/低_同月比較</t>
   </si>
   <si>
-    <t>創 N月新高/低</t>
-  </si>
-  <si>
     <t>近12月累計營收_千元</t>
   </si>
   <si>
@@ -1376,12 +1373,6 @@
     <t>近12月累計營收成長率％</t>
   </si>
   <si>
-    <t>近 3月累計營收_千元</t>
-  </si>
-  <si>
-    <t>去年近 3月累計營收_千元</t>
-  </si>
-  <si>
     <t>近3月累計營收成長率％</t>
   </si>
   <si>
@@ -1398,9 +1389,6 @@
   </si>
   <si>
     <t>近12月每股營收_元</t>
-  </si>
-  <si>
-    <t>近 3月每股營收_元</t>
   </si>
   <si>
     <t>外資買進張數</t>
@@ -2886,9 +2874,6 @@
     <t>Highest_Or_Lowest_Same_Month</t>
   </si>
   <si>
-    <t>Hit_ New_High_Or_ Low_In_ N_Months</t>
-  </si>
-  <si>
     <t>Sales_Accu_12M</t>
   </si>
   <si>
@@ -2958,13 +2943,7 @@
     <t>Limit_Up_or_Down_in_Opening_Fg</t>
   </si>
   <si>
-    <t>Component_Stock_of_MSCI_TW_ Fg</t>
-  </si>
-  <si>
     <t>Component_Stock_of_High_Dividend_Fg</t>
-  </si>
-  <si>
-    <t>Component_Stock_of_MidCap100_ Fg</t>
   </si>
   <si>
     <t>Security_Type_Chinese</t>
@@ -3034,9 +3013,6 @@
     <t>Margin_Balance_Ratio</t>
   </si>
   <si>
-    <t>SBL_ Short_ Balance_Amt</t>
-  </si>
-  <si>
     <t>Outstanding_Shares_1000_Shares</t>
   </si>
   <si>
@@ -3161,6 +3137,30 @@
   </si>
   <si>
     <t>Net_Income_Attributable_to_Non_Controlling_Interest</t>
+  </si>
+  <si>
+    <t>創N月新高/低</t>
+  </si>
+  <si>
+    <t>Hit_New_High_Or_Low_In_N_Months</t>
+  </si>
+  <si>
+    <t>近3月累計營收_千元</t>
+  </si>
+  <si>
+    <t>去年近3月累計營收_千元</t>
+  </si>
+  <si>
+    <t>近3月每股營收_元</t>
+  </si>
+  <si>
+    <t>SBL_Short_Balance_Amt</t>
+  </si>
+  <si>
+    <t>Component_Stock_of_MSCI_TW_Fg</t>
+  </si>
+  <si>
+    <t>Component_Stock_of_MidCap100_Fg</t>
   </si>
 </sst>
 </file>
@@ -3491,10 +3491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="D358" sqref="D358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>34</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>34</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>34</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>173</v>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>173</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>994</v>
+        <v>226</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>33</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>33</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>33</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>33</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>229</v>
+        <v>989</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>33</v>
@@ -5193,7 +5193,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>997</v>
+        <v>230</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>33</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>33</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>33</v>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>33</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>33</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>33</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>33</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>33</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>33</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>33</v>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>33</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>33</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>33</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>33</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>33</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>33</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>33</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>33</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>33</v>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>33</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>33</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>33</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>33</v>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>33</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>33</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>33</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>33</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>33</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>33</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>33</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>33</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>33</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>33</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>33</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>33</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>33</v>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>33</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>33</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>33</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>33</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>33</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>33</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>33</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>33</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>33</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>33</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>1010</v>
+        <v>275</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>33</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>33</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>33</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>33</v>
@@ -5593,7 +5593,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>33</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>1013</v>
+        <v>280</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>33</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>33</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>33</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>1016</v>
+        <v>283</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>33</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>1019</v>
+        <v>284</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>33</v>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>280</v>
+        <v>18</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>33</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>281</v>
+        <v>19</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>33</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>1022</v>
+        <v>20</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>33</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>1025</v>
+        <v>21</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>33</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>33</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>33</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>1028</v>
+        <v>17</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>33</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>33</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>18</v>
+        <v>287</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>33</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>33</v>
@@ -5721,7 +5721,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>33</v>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>21</v>
+        <v>290</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>33</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>33</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>33</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>33</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>33</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>33</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>33</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>33</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>33</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>33</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>33</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>33</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>33</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>33</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>33</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>33</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>33</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>33</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>33</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>33</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>33</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>33</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>33</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>33</v>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>33</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>33</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>33</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>33</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>33</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>33</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>33</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>33</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>33</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>33</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>33</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>33</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>33</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>33</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>33</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>33</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>33</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>33</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>33</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>33</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>326</v>
+        <v>25</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>33</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>33</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>33</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>33</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>33</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>330</v>
+        <v>28</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>33</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>331</v>
+        <v>29</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>33</v>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>33</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>33</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>33</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>33</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>33</v>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>33</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>33</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>29</v>
+        <v>338</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>33</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>33</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>31</v>
+        <v>340</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>33</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>33</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>33</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>33</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>33</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>33</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>33</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>33</v>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>33</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>33</v>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>33</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>33</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>33</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>33</v>
@@ -6321,118 +6321,54 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>347</v>
+      <c r="A354" t="s">
+        <v>355</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>348</v>
+      <c r="A355" t="s">
+        <v>356</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>349</v>
+      <c r="A356" t="s">
+        <v>22</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
-        <v>350</v>
+      <c r="A357" t="s">
+        <v>357</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>351</v>
+      <c r="A358" t="s">
+        <v>358</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>356</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>22</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>357</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>358</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B366" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:B357" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B8">
     <sortCondition ref="A2"/>
   </sortState>
@@ -6446,8 +6382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:A194"/>
+    <sheetView topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B324" sqref="B324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6460,16 +6396,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6519,7 +6455,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -6533,7 +6469,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -6561,7 +6497,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -6575,7 +6511,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -6589,7 +6525,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -6872,7 +6808,7 @@
         <v>395</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>34</v>
@@ -6886,7 +6822,7 @@
         <v>396</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>34</v>
@@ -6900,7 +6836,7 @@
         <v>397</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>34</v>
@@ -6914,7 +6850,7 @@
         <v>398</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>34</v>
@@ -6928,7 +6864,7 @@
         <v>399</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>34</v>
@@ -6942,7 +6878,7 @@
         <v>400</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>34</v>
@@ -6956,7 +6892,7 @@
         <v>401</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>34</v>
@@ -6970,7 +6906,7 @@
         <v>402</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>34</v>
@@ -6984,7 +6920,7 @@
         <v>403</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>34</v>
@@ -6998,7 +6934,7 @@
         <v>404</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>34</v>
@@ -7012,7 +6948,7 @@
         <v>405</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>34</v>
@@ -7026,7 +6962,7 @@
         <v>406</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>34</v>
@@ -7040,7 +6976,7 @@
         <v>407</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>34</v>
@@ -7054,7 +6990,7 @@
         <v>408</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>34</v>
@@ -7068,7 +7004,7 @@
         <v>409</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>34</v>
@@ -7082,7 +7018,7 @@
         <v>410</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>34</v>
@@ -7096,7 +7032,7 @@
         <v>411</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>34</v>
@@ -7110,7 +7046,7 @@
         <v>412</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>34</v>
@@ -7124,7 +7060,7 @@
         <v>413</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>34</v>
@@ -7138,7 +7074,7 @@
         <v>414</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>34</v>
@@ -7152,7 +7088,7 @@
         <v>415</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>34</v>
@@ -7166,7 +7102,7 @@
         <v>416</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>34</v>
@@ -7180,7 +7116,7 @@
         <v>417</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
@@ -7236,7 +7172,7 @@
         <v>418</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>58</v>
@@ -7250,7 +7186,7 @@
         <v>419</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>58</v>
@@ -7264,7 +7200,7 @@
         <v>420</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>58</v>
@@ -7278,7 +7214,7 @@
         <v>421</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>58</v>
@@ -7292,7 +7228,7 @@
         <v>422</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>58</v>
@@ -7306,7 +7242,7 @@
         <v>423</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>58</v>
@@ -7320,7 +7256,7 @@
         <v>424</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>58</v>
@@ -7334,7 +7270,7 @@
         <v>425</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>58</v>
@@ -7348,7 +7284,7 @@
         <v>426</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>58</v>
@@ -7362,7 +7298,7 @@
         <v>427</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>58</v>
@@ -7376,7 +7312,7 @@
         <v>428</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>58</v>
@@ -7390,7 +7326,7 @@
         <v>429</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>58</v>
@@ -7404,7 +7340,7 @@
         <v>430</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>58</v>
@@ -7418,7 +7354,7 @@
         <v>431</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>58</v>
@@ -7432,7 +7368,7 @@
         <v>432</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>58</v>
@@ -7446,7 +7382,7 @@
         <v>433</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>58</v>
@@ -7457,10 +7393,10 @@
         <v>76</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>434</v>
+        <v>1024</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>940</v>
+        <v>1025</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>58</v>
@@ -7471,10 +7407,10 @@
         <v>77</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>58</v>
@@ -7485,10 +7421,10 @@
         <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>58</v>
@@ -7499,10 +7435,10 @@
         <v>79</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>58</v>
@@ -7513,10 +7449,10 @@
         <v>80</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>438</v>
+        <v>1026</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>58</v>
@@ -7527,10 +7463,10 @@
         <v>81</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>439</v>
+        <v>1027</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>58</v>
@@ -7541,10 +7477,10 @@
         <v>82</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>58</v>
@@ -7555,10 +7491,10 @@
         <v>83</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>58</v>
@@ -7569,10 +7505,10 @@
         <v>84</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>58</v>
@@ -7586,7 +7522,7 @@
         <v>410</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>58</v>
@@ -7597,10 +7533,10 @@
         <v>86</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>58</v>
@@ -7611,10 +7547,10 @@
         <v>87</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>58</v>
@@ -7625,10 +7561,10 @@
         <v>88</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>58</v>
@@ -7639,10 +7575,10 @@
         <v>89</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>446</v>
+        <v>1028</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>58</v>
@@ -7684,7 +7620,7 @@
         <v>395</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>90</v>
@@ -7695,10 +7631,10 @@
         <v>91</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>90</v>
@@ -7709,10 +7645,10 @@
         <v>92</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>90</v>
@@ -7723,10 +7659,10 @@
         <v>93</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>90</v>
@@ -7737,10 +7673,10 @@
         <v>94</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>90</v>
@@ -7751,10 +7687,10 @@
         <v>95</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>90</v>
@@ -7765,10 +7701,10 @@
         <v>96</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>90</v>
@@ -7779,10 +7715,10 @@
         <v>97</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>90</v>
@@ -7793,10 +7729,10 @@
         <v>98</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>90</v>
@@ -7807,10 +7743,10 @@
         <v>99</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>90</v>
@@ -7821,10 +7757,10 @@
         <v>100</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>90</v>
@@ -7835,10 +7771,10 @@
         <v>101</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>90</v>
@@ -7849,10 +7785,10 @@
         <v>102</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>90</v>
@@ -7863,10 +7799,10 @@
         <v>103</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>90</v>
@@ -7877,10 +7813,10 @@
         <v>104</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>90</v>
@@ -7891,10 +7827,10 @@
         <v>105</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>90</v>
@@ -7905,10 +7841,10 @@
         <v>106</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>90</v>
@@ -7919,10 +7855,10 @@
         <v>107</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>90</v>
@@ -7933,10 +7869,10 @@
         <v>108</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>90</v>
@@ -7947,10 +7883,10 @@
         <v>109</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>90</v>
@@ -7961,10 +7897,10 @@
         <v>110</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>90</v>
@@ -7975,10 +7911,10 @@
         <v>111</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>90</v>
@@ -7989,10 +7925,10 @@
         <v>112</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>90</v>
@@ -8003,10 +7939,10 @@
         <v>113</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>90</v>
@@ -8017,10 +7953,10 @@
         <v>114</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>90</v>
@@ -8031,10 +7967,10 @@
         <v>115</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>90</v>
@@ -8045,10 +7981,10 @@
         <v>116</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>90</v>
@@ -8059,10 +7995,10 @@
         <v>117</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>90</v>
@@ -8073,10 +8009,10 @@
         <v>118</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>90</v>
@@ -8087,10 +8023,10 @@
         <v>119</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>90</v>
@@ -8101,10 +8037,10 @@
         <v>120</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>90</v>
@@ -8115,10 +8051,10 @@
         <v>121</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>90</v>
@@ -8129,10 +8065,10 @@
         <v>122</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>90</v>
@@ -8143,10 +8079,10 @@
         <v>123</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>90</v>
@@ -8157,10 +8093,10 @@
         <v>124</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>90</v>
@@ -8171,10 +8107,10 @@
         <v>125</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>90</v>
@@ -8185,10 +8121,10 @@
         <v>126</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>90</v>
@@ -8199,10 +8135,10 @@
         <v>127</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>90</v>
@@ -8213,10 +8149,10 @@
         <v>128</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>90</v>
@@ -8227,10 +8163,10 @@
         <v>129</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>90</v>
@@ -8241,10 +8177,10 @@
         <v>130</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>90</v>
@@ -8255,10 +8191,10 @@
         <v>131</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>90</v>
@@ -8269,10 +8205,10 @@
         <v>132</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>90</v>
@@ -8283,10 +8219,10 @@
         <v>133</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>90</v>
@@ -8297,10 +8233,10 @@
         <v>134</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>90</v>
@@ -8311,10 +8247,10 @@
         <v>135</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>90</v>
@@ -8325,10 +8261,10 @@
         <v>136</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>90</v>
@@ -8339,10 +8275,10 @@
         <v>137</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>90</v>
@@ -8353,10 +8289,10 @@
         <v>138</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>90</v>
@@ -8367,10 +8303,10 @@
         <v>139</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>90</v>
@@ -8381,10 +8317,10 @@
         <v>140</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>90</v>
@@ -8395,10 +8331,10 @@
         <v>141</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>90</v>
@@ -8409,10 +8345,10 @@
         <v>142</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>90</v>
@@ -8423,10 +8359,10 @@
         <v>143</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>989</v>
+        <v>1029</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>90</v>
@@ -8437,10 +8373,10 @@
         <v>144</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>90</v>
@@ -8451,10 +8387,10 @@
         <v>145</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>90</v>
@@ -8465,10 +8401,10 @@
         <v>146</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>90</v>
@@ -8479,10 +8415,10 @@
         <v>147</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>90</v>
@@ -8493,10 +8429,10 @@
         <v>148</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>90</v>
@@ -8507,10 +8443,10 @@
         <v>149</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>90</v>
@@ -8552,7 +8488,7 @@
         <v>395</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>150</v>
@@ -8563,7 +8499,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>151</v>
@@ -8577,10 +8513,10 @@
         <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>150</v>
@@ -8591,10 +8527,10 @@
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>150</v>
@@ -8605,7 +8541,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>154</v>
@@ -8619,10 +8555,10 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>150</v>
@@ -8633,10 +8569,10 @@
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>150</v>
@@ -8647,10 +8583,10 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>150</v>
@@ -8661,10 +8597,10 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>150</v>
@@ -8675,10 +8611,10 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>150</v>
@@ -8689,10 +8625,10 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>150</v>
@@ -8703,10 +8639,10 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>150</v>
@@ -8717,10 +8653,10 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>150</v>
@@ -8731,10 +8667,10 @@
         <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>150</v>
@@ -8745,10 +8681,10 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>150</v>
@@ -8759,10 +8695,10 @@
         <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>150</v>
@@ -8773,10 +8709,10 @@
         <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>150</v>
@@ -8787,10 +8723,10 @@
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>150</v>
@@ -8801,10 +8737,10 @@
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>150</v>
@@ -8815,10 +8751,10 @@
         <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>150</v>
@@ -8829,10 +8765,10 @@
         <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>150</v>
@@ -8843,10 +8779,10 @@
         <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>150</v>
@@ -8857,10 +8793,10 @@
         <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>150</v>
@@ -8896,13 +8832,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>173</v>
@@ -8910,13 +8846,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>173</v>
@@ -8930,7 +8866,7 @@
         <v>395</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>173</v>
@@ -8941,10 +8877,10 @@
         <v>174</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>173</v>
@@ -8955,10 +8891,10 @@
         <v>175</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>173</v>
@@ -8969,10 +8905,10 @@
         <v>176</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>173</v>
@@ -8983,10 +8919,10 @@
         <v>177</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>173</v>
@@ -8997,10 +8933,10 @@
         <v>178</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>173</v>
@@ -9011,10 +8947,10 @@
         <v>179</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>173</v>
@@ -9025,10 +8961,10 @@
         <v>180</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>173</v>
@@ -9039,10 +8975,10 @@
         <v>181</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>173</v>
@@ -9053,10 +8989,10 @@
         <v>182</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>173</v>
@@ -9067,10 +9003,10 @@
         <v>183</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>173</v>
@@ -9081,10 +9017,10 @@
         <v>184</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>173</v>
@@ -9095,10 +9031,10 @@
         <v>185</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>173</v>
@@ -9109,10 +9045,10 @@
         <v>186</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>964</v>
+        <v>1030</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>173</v>
@@ -9123,10 +9059,10 @@
         <v>187</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>173</v>
@@ -9137,10 +9073,10 @@
         <v>188</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>173</v>
@@ -9151,10 +9087,10 @@
         <v>189</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>173</v>
@@ -9165,10 +9101,10 @@
         <v>190</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>966</v>
+        <v>1031</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>173</v>
@@ -9176,13 +9112,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="B195" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="C195" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>34</v>
@@ -9190,13 +9126,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="B196" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C196" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>34</v>
@@ -9204,13 +9140,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="B197" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="C197" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>34</v>
@@ -9221,10 +9157,10 @@
         <v>217</v>
       </c>
       <c r="B198" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C198" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="D198" t="s">
         <v>33</v>
@@ -9235,10 +9171,10 @@
         <v>218</v>
       </c>
       <c r="B199" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C199" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="D199" t="s">
         <v>33</v>
@@ -9249,10 +9185,10 @@
         <v>219</v>
       </c>
       <c r="B200" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C200" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D200" t="s">
         <v>33</v>
@@ -9263,10 +9199,10 @@
         <v>220</v>
       </c>
       <c r="B201" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C201" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D201" t="s">
         <v>33</v>
@@ -9277,10 +9213,10 @@
         <v>221</v>
       </c>
       <c r="B202" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C202" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D202" t="s">
         <v>33</v>
@@ -9291,10 +9227,10 @@
         <v>222</v>
       </c>
       <c r="B203" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C203" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D203" t="s">
         <v>33</v>
@@ -9305,10 +9241,10 @@
         <v>223</v>
       </c>
       <c r="B204" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C204" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D204" t="s">
         <v>33</v>
@@ -9319,10 +9255,10 @@
         <v>224</v>
       </c>
       <c r="B205" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C205" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D205" t="s">
         <v>33</v>
@@ -9333,10 +9269,10 @@
         <v>225</v>
       </c>
       <c r="B206" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C206" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D206" t="s">
         <v>33</v>
@@ -9344,13 +9280,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B207" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="C207" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="D207" t="s">
         <v>33</v>
@@ -9361,10 +9297,10 @@
         <v>226</v>
       </c>
       <c r="B208" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C208" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D208" t="s">
         <v>33</v>
@@ -9375,10 +9311,10 @@
         <v>227</v>
       </c>
       <c r="B209" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C209" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D209" t="s">
         <v>33</v>
@@ -9389,10 +9325,10 @@
         <v>228</v>
       </c>
       <c r="B210" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C210" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D210" t="s">
         <v>33</v>
@@ -9403,10 +9339,10 @@
         <v>229</v>
       </c>
       <c r="B211" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C211" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D211" t="s">
         <v>33</v>
@@ -9414,13 +9350,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="B212" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="C212" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="D212" t="s">
         <v>33</v>
@@ -9431,10 +9367,10 @@
         <v>230</v>
       </c>
       <c r="B213" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C213" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D213" t="s">
         <v>33</v>
@@ -9445,10 +9381,10 @@
         <v>231</v>
       </c>
       <c r="B214" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C214" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D214" t="s">
         <v>33</v>
@@ -9459,10 +9395,10 @@
         <v>232</v>
       </c>
       <c r="B215" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C215" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D215" t="s">
         <v>33</v>
@@ -9473,10 +9409,10 @@
         <v>233</v>
       </c>
       <c r="B216" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C216" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D216" t="s">
         <v>33</v>
@@ -9487,10 +9423,10 @@
         <v>234</v>
       </c>
       <c r="B217" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C217" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D217" t="s">
         <v>33</v>
@@ -9501,10 +9437,10 @@
         <v>235</v>
       </c>
       <c r="B218" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C218" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="D218" t="s">
         <v>33</v>
@@ -9515,10 +9451,10 @@
         <v>236</v>
       </c>
       <c r="B219" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C219" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D219" t="s">
         <v>33</v>
@@ -9529,10 +9465,10 @@
         <v>237</v>
       </c>
       <c r="B220" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C220" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D220" t="s">
         <v>33</v>
@@ -9543,10 +9479,10 @@
         <v>238</v>
       </c>
       <c r="B221" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C221" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="D221" t="s">
         <v>33</v>
@@ -9557,10 +9493,10 @@
         <v>239</v>
       </c>
       <c r="B222" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C222" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="D222" t="s">
         <v>33</v>
@@ -9571,10 +9507,10 @@
         <v>240</v>
       </c>
       <c r="B223" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C223" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D223" t="s">
         <v>33</v>
@@ -9585,10 +9521,10 @@
         <v>241</v>
       </c>
       <c r="B224" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C224" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D224" t="s">
         <v>33</v>
@@ -9599,10 +9535,10 @@
         <v>242</v>
       </c>
       <c r="B225" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C225" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D225" t="s">
         <v>33</v>
@@ -9613,10 +9549,10 @@
         <v>243</v>
       </c>
       <c r="B226" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C226" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="D226" t="s">
         <v>33</v>
@@ -9627,10 +9563,10 @@
         <v>244</v>
       </c>
       <c r="B227" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C227" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="D227" t="s">
         <v>33</v>
@@ -9641,10 +9577,10 @@
         <v>245</v>
       </c>
       <c r="B228" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C228" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="D228" t="s">
         <v>33</v>
@@ -9655,10 +9591,10 @@
         <v>246</v>
       </c>
       <c r="B229" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C229" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="D229" t="s">
         <v>33</v>
@@ -9669,10 +9605,10 @@
         <v>247</v>
       </c>
       <c r="B230" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C230" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D230" t="s">
         <v>33</v>
@@ -9683,10 +9619,10 @@
         <v>248</v>
       </c>
       <c r="B231" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C231" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D231" t="s">
         <v>33</v>
@@ -9697,10 +9633,10 @@
         <v>249</v>
       </c>
       <c r="B232" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C232" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D232" t="s">
         <v>33</v>
@@ -9711,10 +9647,10 @@
         <v>250</v>
       </c>
       <c r="B233" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C233" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D233" t="s">
         <v>33</v>
@@ -9725,10 +9661,10 @@
         <v>251</v>
       </c>
       <c r="B234" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C234" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D234" t="s">
         <v>33</v>
@@ -9739,10 +9675,10 @@
         <v>252</v>
       </c>
       <c r="B235" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C235" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D235" t="s">
         <v>33</v>
@@ -9753,10 +9689,10 @@
         <v>253</v>
       </c>
       <c r="B236" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C236" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="D236" t="s">
         <v>33</v>
@@ -9767,10 +9703,10 @@
         <v>254</v>
       </c>
       <c r="B237" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C237" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D237" t="s">
         <v>33</v>
@@ -9781,10 +9717,10 @@
         <v>255</v>
       </c>
       <c r="B238" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C238" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D238" t="s">
         <v>33</v>
@@ -9795,10 +9731,10 @@
         <v>256</v>
       </c>
       <c r="B239" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C239" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="D239" t="s">
         <v>33</v>
@@ -9809,10 +9745,10 @@
         <v>257</v>
       </c>
       <c r="B240" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C240" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D240" t="s">
         <v>33</v>
@@ -9823,10 +9759,10 @@
         <v>258</v>
       </c>
       <c r="B241" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C241" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D241" t="s">
         <v>33</v>
@@ -9837,10 +9773,10 @@
         <v>259</v>
       </c>
       <c r="B242" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C242" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D242" t="s">
         <v>33</v>
@@ -9851,10 +9787,10 @@
         <v>260</v>
       </c>
       <c r="B243" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C243" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D243" t="s">
         <v>33</v>
@@ -9865,10 +9801,10 @@
         <v>261</v>
       </c>
       <c r="B244" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C244" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D244" t="s">
         <v>33</v>
@@ -9879,10 +9815,10 @@
         <v>262</v>
       </c>
       <c r="B245" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C245" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D245" t="s">
         <v>33</v>
@@ -9893,10 +9829,10 @@
         <v>263</v>
       </c>
       <c r="B246" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C246" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D246" t="s">
         <v>33</v>
@@ -9907,10 +9843,10 @@
         <v>264</v>
       </c>
       <c r="B247" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C247" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D247" t="s">
         <v>33</v>
@@ -9921,10 +9857,10 @@
         <v>265</v>
       </c>
       <c r="B248" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C248" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D248" t="s">
         <v>33</v>
@@ -9935,10 +9871,10 @@
         <v>266</v>
       </c>
       <c r="B249" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C249" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D249" t="s">
         <v>33</v>
@@ -9949,10 +9885,10 @@
         <v>267</v>
       </c>
       <c r="B250" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C250" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D250" t="s">
         <v>33</v>
@@ -9977,10 +9913,10 @@
         <v>268</v>
       </c>
       <c r="B252" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C252" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D252" t="s">
         <v>33</v>
@@ -9991,10 +9927,10 @@
         <v>269</v>
       </c>
       <c r="B253" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C253" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D253" t="s">
         <v>33</v>
@@ -10005,10 +9941,10 @@
         <v>270</v>
       </c>
       <c r="B254" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C254" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D254" t="s">
         <v>33</v>
@@ -10019,10 +9955,10 @@
         <v>271</v>
       </c>
       <c r="B255" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C255" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D255" t="s">
         <v>33</v>
@@ -10033,10 +9969,10 @@
         <v>272</v>
       </c>
       <c r="B256" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C256" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D256" t="s">
         <v>33</v>
@@ -10047,10 +9983,10 @@
         <v>273</v>
       </c>
       <c r="B257" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C257" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D257" t="s">
         <v>33</v>
@@ -10058,13 +9994,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B258" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="C258" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="D258" t="s">
         <v>33</v>
@@ -10075,10 +10011,10 @@
         <v>274</v>
       </c>
       <c r="B259" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C259" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D259" t="s">
         <v>33</v>
@@ -10089,10 +10025,10 @@
         <v>275</v>
       </c>
       <c r="B260" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C260" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D260" t="s">
         <v>33</v>
@@ -10103,10 +10039,10 @@
         <v>276</v>
       </c>
       <c r="B261" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C261" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D261" t="s">
         <v>33</v>
@@ -10117,10 +10053,10 @@
         <v>277</v>
       </c>
       <c r="B262" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C262" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D262" t="s">
         <v>33</v>
@@ -10128,13 +10064,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="B263" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="C263" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="D263" t="s">
         <v>33</v>
@@ -10145,10 +10081,10 @@
         <v>278</v>
       </c>
       <c r="B264" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C264" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D264" t="s">
         <v>33</v>
@@ -10159,10 +10095,10 @@
         <v>279</v>
       </c>
       <c r="B265" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C265" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D265" t="s">
         <v>33</v>
@@ -10170,13 +10106,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B266" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C266" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="D266" t="s">
         <v>33</v>
@@ -10184,13 +10120,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="B267" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="C267" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="D267" t="s">
         <v>33</v>
@@ -10201,10 +10137,10 @@
         <v>280</v>
       </c>
       <c r="B268" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C268" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D268" t="s">
         <v>33</v>
@@ -10215,10 +10151,10 @@
         <v>281</v>
       </c>
       <c r="B269" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C269" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D269" t="s">
         <v>33</v>
@@ -10226,13 +10162,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B270" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="C270" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="D270" t="s">
         <v>33</v>
@@ -10240,13 +10176,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B271" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="C271" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="D271" t="s">
         <v>33</v>
@@ -10257,10 +10193,10 @@
         <v>282</v>
       </c>
       <c r="B272" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C272" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D272" t="s">
         <v>33</v>
@@ -10271,10 +10207,10 @@
         <v>283</v>
       </c>
       <c r="B273" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C273" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D273" t="s">
         <v>33</v>
@@ -10282,13 +10218,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="B274" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="C274" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D274" t="s">
         <v>33</v>
@@ -10299,10 +10235,10 @@
         <v>284</v>
       </c>
       <c r="B275" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C275" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="D275" t="s">
         <v>33</v>
@@ -10383,10 +10319,10 @@
         <v>285</v>
       </c>
       <c r="B281" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C281" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D281" t="s">
         <v>33</v>
@@ -10411,10 +10347,10 @@
         <v>286</v>
       </c>
       <c r="B283" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C283" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D283" t="s">
         <v>33</v>
@@ -10425,10 +10361,10 @@
         <v>287</v>
       </c>
       <c r="B284" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C284" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D284" t="s">
         <v>33</v>
@@ -10439,10 +10375,10 @@
         <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C285" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D285" t="s">
         <v>33</v>
@@ -10453,10 +10389,10 @@
         <v>289</v>
       </c>
       <c r="B286" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C286" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D286" t="s">
         <v>33</v>
@@ -10467,10 +10403,10 @@
         <v>290</v>
       </c>
       <c r="B287" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C287" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D287" t="s">
         <v>33</v>
@@ -10481,10 +10417,10 @@
         <v>291</v>
       </c>
       <c r="B288" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C288" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D288" t="s">
         <v>33</v>
@@ -10495,10 +10431,10 @@
         <v>292</v>
       </c>
       <c r="B289" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C289" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D289" t="s">
         <v>33</v>
@@ -10509,10 +10445,10 @@
         <v>293</v>
       </c>
       <c r="B290" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C290" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D290" t="s">
         <v>33</v>
@@ -10523,10 +10459,10 @@
         <v>294</v>
       </c>
       <c r="B291" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C291" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D291" t="s">
         <v>33</v>
@@ -10537,10 +10473,10 @@
         <v>295</v>
       </c>
       <c r="B292" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C292" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D292" t="s">
         <v>33</v>
@@ -10551,10 +10487,10 @@
         <v>296</v>
       </c>
       <c r="B293" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C293" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D293" t="s">
         <v>33</v>
@@ -10565,10 +10501,10 @@
         <v>297</v>
       </c>
       <c r="B294" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C294" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D294" t="s">
         <v>33</v>
@@ -10579,10 +10515,10 @@
         <v>298</v>
       </c>
       <c r="B295" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C295" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D295" t="s">
         <v>33</v>
@@ -10593,10 +10529,10 @@
         <v>299</v>
       </c>
       <c r="B296" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C296" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D296" t="s">
         <v>33</v>
@@ -10607,10 +10543,10 @@
         <v>300</v>
       </c>
       <c r="B297" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C297" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D297" t="s">
         <v>33</v>
@@ -10621,10 +10557,10 @@
         <v>301</v>
       </c>
       <c r="B298" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C298" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D298" t="s">
         <v>33</v>
@@ -10635,10 +10571,10 @@
         <v>302</v>
       </c>
       <c r="B299" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C299" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D299" t="s">
         <v>33</v>
@@ -10649,10 +10585,10 @@
         <v>303</v>
       </c>
       <c r="B300" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C300" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D300" t="s">
         <v>33</v>
@@ -10663,10 +10599,10 @@
         <v>304</v>
       </c>
       <c r="B301" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C301" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D301" t="s">
         <v>33</v>
@@ -10677,10 +10613,10 @@
         <v>305</v>
       </c>
       <c r="B302" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C302" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D302" t="s">
         <v>33</v>
@@ -10691,10 +10627,10 @@
         <v>306</v>
       </c>
       <c r="B303" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C303" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D303" t="s">
         <v>33</v>
@@ -10705,10 +10641,10 @@
         <v>307</v>
       </c>
       <c r="B304" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C304" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D304" t="s">
         <v>33</v>
@@ -10719,10 +10655,10 @@
         <v>308</v>
       </c>
       <c r="B305" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C305" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D305" t="s">
         <v>33</v>
@@ -10733,10 +10669,10 @@
         <v>309</v>
       </c>
       <c r="B306" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C306" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D306" t="s">
         <v>33</v>
@@ -10747,10 +10683,10 @@
         <v>310</v>
       </c>
       <c r="B307" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C307" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D307" t="s">
         <v>33</v>
@@ -10761,10 +10697,10 @@
         <v>311</v>
       </c>
       <c r="B308" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C308" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D308" t="s">
         <v>33</v>
@@ -10775,10 +10711,10 @@
         <v>312</v>
       </c>
       <c r="B309" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C309" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D309" t="s">
         <v>33</v>
@@ -10789,10 +10725,10 @@
         <v>313</v>
       </c>
       <c r="B310" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C310" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D310" t="s">
         <v>33</v>
@@ -10803,10 +10739,10 @@
         <v>314</v>
       </c>
       <c r="B311" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C311" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D311" t="s">
         <v>33</v>
@@ -10817,10 +10753,10 @@
         <v>315</v>
       </c>
       <c r="B312" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C312" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D312" t="s">
         <v>33</v>
@@ -10831,10 +10767,10 @@
         <v>316</v>
       </c>
       <c r="B313" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C313" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D313" t="s">
         <v>33</v>
@@ -10845,10 +10781,10 @@
         <v>317</v>
       </c>
       <c r="B314" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C314" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D314" t="s">
         <v>33</v>
@@ -10859,10 +10795,10 @@
         <v>318</v>
       </c>
       <c r="B315" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C315" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D315" t="s">
         <v>33</v>
@@ -10873,10 +10809,10 @@
         <v>319</v>
       </c>
       <c r="B316" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C316" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D316" t="s">
         <v>33</v>
@@ -10887,10 +10823,10 @@
         <v>320</v>
       </c>
       <c r="B317" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C317" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D317" t="s">
         <v>33</v>
@@ -10901,10 +10837,10 @@
         <v>321</v>
       </c>
       <c r="B318" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C318" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D318" t="s">
         <v>33</v>
@@ -10915,10 +10851,10 @@
         <v>322</v>
       </c>
       <c r="B319" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C319" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D319" t="s">
         <v>33</v>
@@ -10929,10 +10865,10 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C320" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D320" t="s">
         <v>33</v>
@@ -10943,10 +10879,10 @@
         <v>324</v>
       </c>
       <c r="B321" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C321" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D321" t="s">
         <v>33</v>
@@ -10957,10 +10893,10 @@
         <v>325</v>
       </c>
       <c r="B322" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C322" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D322" t="s">
         <v>33</v>
@@ -10971,10 +10907,10 @@
         <v>326</v>
       </c>
       <c r="B323" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C323" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D323" t="s">
         <v>33</v>
@@ -10985,10 +10921,10 @@
         <v>327</v>
       </c>
       <c r="B324" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C324" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D324" t="s">
         <v>33</v>
@@ -10999,10 +10935,10 @@
         <v>50</v>
       </c>
       <c r="B325" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C325" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D325" t="s">
         <v>33</v>
@@ -11013,10 +10949,10 @@
         <v>328</v>
       </c>
       <c r="B326" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C326" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D326" t="s">
         <v>33</v>
@@ -11027,10 +10963,10 @@
         <v>329</v>
       </c>
       <c r="B327" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C327" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D327" t="s">
         <v>33</v>
@@ -11041,10 +10977,10 @@
         <v>330</v>
       </c>
       <c r="B328" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C328" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D328" t="s">
         <v>33</v>
@@ -11055,10 +10991,10 @@
         <v>331</v>
       </c>
       <c r="B329" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C329" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D329" t="s">
         <v>33</v>
@@ -11125,10 +11061,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C334" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D334" t="s">
         <v>33</v>
@@ -11139,10 +11075,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C335" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D335" t="s">
         <v>33</v>
@@ -11223,10 +11159,10 @@
         <v>334</v>
       </c>
       <c r="B341" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C341" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D341" t="s">
         <v>33</v>
@@ -11237,10 +11173,10 @@
         <v>335</v>
       </c>
       <c r="B342" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C342" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D342" t="s">
         <v>33</v>
@@ -11251,10 +11187,10 @@
         <v>336</v>
       </c>
       <c r="B343" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C343" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D343" t="s">
         <v>33</v>
@@ -11265,10 +11201,10 @@
         <v>337</v>
       </c>
       <c r="B344" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C344" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D344" t="s">
         <v>33</v>
@@ -11279,10 +11215,10 @@
         <v>338</v>
       </c>
       <c r="B345" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C345" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D345" t="s">
         <v>33</v>
@@ -11293,10 +11229,10 @@
         <v>339</v>
       </c>
       <c r="B346" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C346" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D346" t="s">
         <v>33</v>
@@ -11307,10 +11243,10 @@
         <v>340</v>
       </c>
       <c r="B347" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C347" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D347" t="s">
         <v>33</v>
@@ -11321,10 +11257,10 @@
         <v>341</v>
       </c>
       <c r="B348" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C348" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D348" t="s">
         <v>33</v>
@@ -11335,10 +11271,10 @@
         <v>342</v>
       </c>
       <c r="B349" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C349" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D349" t="s">
         <v>33</v>
@@ -11349,10 +11285,10 @@
         <v>343</v>
       </c>
       <c r="B350" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C350" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D350" t="s">
         <v>33</v>
@@ -11363,10 +11299,10 @@
         <v>344</v>
       </c>
       <c r="B351" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C351" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D351" t="s">
         <v>33</v>
@@ -11377,10 +11313,10 @@
         <v>345</v>
       </c>
       <c r="B352" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C352" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D352" t="s">
         <v>33</v>
@@ -11391,10 +11327,10 @@
         <v>346</v>
       </c>
       <c r="B353" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C353" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D353" t="s">
         <v>33</v>
@@ -11405,10 +11341,10 @@
         <v>347</v>
       </c>
       <c r="B354" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C354" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D354" t="s">
         <v>33</v>
@@ -11419,10 +11355,10 @@
         <v>348</v>
       </c>
       <c r="B355" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C355" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D355" t="s">
         <v>33</v>
@@ -11433,10 +11369,10 @@
         <v>349</v>
       </c>
       <c r="B356" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C356" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D356" t="s">
         <v>33</v>
@@ -11447,10 +11383,10 @@
         <v>350</v>
       </c>
       <c r="B357" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C357" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D357" t="s">
         <v>33</v>
@@ -11461,10 +11397,10 @@
         <v>351</v>
       </c>
       <c r="B358" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C358" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D358" t="s">
         <v>33</v>
@@ -11475,10 +11411,10 @@
         <v>352</v>
       </c>
       <c r="B359" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C359" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D359" t="s">
         <v>33</v>
@@ -11489,10 +11425,10 @@
         <v>353</v>
       </c>
       <c r="B360" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C360" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D360" t="s">
         <v>33</v>
@@ -11503,10 +11439,10 @@
         <v>354</v>
       </c>
       <c r="B361" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C361" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D361" t="s">
         <v>33</v>
@@ -11517,10 +11453,10 @@
         <v>355</v>
       </c>
       <c r="B362" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C362" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D362" t="s">
         <v>33</v>
@@ -11531,10 +11467,10 @@
         <v>356</v>
       </c>
       <c r="B363" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="C363" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D363" t="s">
         <v>33</v>
@@ -11559,10 +11495,10 @@
         <v>357</v>
       </c>
       <c r="B365" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C365" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D365" t="s">
         <v>33</v>
@@ -11573,10 +11509,10 @@
         <v>358</v>
       </c>
       <c r="B366" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C366" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D366" t="s">
         <v>33</v>
@@ -11595,7 +11531,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11679,7 +11615,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
